--- a/doc/04_外部設計書_チーム天然水.xlsx
+++ b/doc/04_外部設計書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72676070-529C-468B-AE4A-D780E05CC653}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F232687C-29F4-4704-A883-F54D1199A4BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書1" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="54">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -195,22 +195,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>正しくない場合は、「IDまたはパスワードが間違っています」と出力する。</t>
-    <rPh sb="0" eb="1">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「2  新規登録」クリック</t>
     <rPh sb="4" eb="8">
       <t>シンキトウロク</t>
@@ -265,13 +249,6 @@
   </si>
   <si>
     <t>１．ログイン</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>２．冷蔵庫</t>
-    <rPh sb="2" eb="5">
-      <t>レイゾウコ</t>
-    </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -341,30 +318,175 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>冷蔵庫内の「６．その他食材のテキストボックス」にユーザーがその食材の食材を手動で追加できる</t>
+    <t>食材管理画面</t>
+    <rPh sb="0" eb="2">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>管理者画面</t>
+    <rPh sb="0" eb="5">
+      <t>カンリシャガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>吉田</t>
+    <rPh sb="0" eb="2">
+      <t>ヨシダ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>1．主要食材ボタンを押すことで主要食材詳細ページに遷移する</t>
+    <rPh sb="2" eb="6">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1. ID、パスワードを入力し、正しい場合はレシピ一覧へ遷移する。</t>
+    <rPh sb="25" eb="27">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>正しくない場合は、「IDまたはパスワードが間違っています」と出力する。</t>
+  </si>
+  <si>
+    <t>正しくない場合は、「IDまたはパスワードが間違っています」と出力する。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>2．レシピ一覧ページの追加ボタンを押すと、レシピ編集ページに遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「6.その他食材のキーワード登録」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>冷蔵庫内のテキストボックスにユーザーがその他食材の食材を手動で追加できる</t>
+  </si>
+  <si>
+    <t>「7.日割りで使用レシピの履歴を表示する」</t>
+  </si>
+  <si>
+    <t>マウスカーソルを重ねることで、対象の日付で使用したレシピを表示する</t>
+  </si>
+  <si>
+    <t>「8.自炊費と外食費の差額を表示する機能」</t>
+  </si>
+  <si>
+    <t>自炊費と外食費の差額を合計し週、月ごとに表示する</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要食材ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>冷凍庫</t>
     <rPh sb="0" eb="3">
-      <t>レイゾウコ</t>
+      <t>レイトウコ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他食材のキーワード登録</t>
+    <rPh sb="2" eb="3">
       <t>タ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="3" eb="5">
       <t>ショクザイ</t>
     </rPh>
-    <rPh sb="31" eb="33">
-      <t>ショクザイ</t>
+    <rPh sb="11" eb="13">
+      <t>トウロク</t>
     </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショクザイ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日割りで使用レシピの履歴を表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ヒワ</t>
     </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュドウ</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
     </rPh>
-    <rPh sb="40" eb="42">
-      <t>ツイカ</t>
+    <rPh sb="10" eb="12">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自炊費と外食費の差額を表示する機能</t>
+    <rPh sb="0" eb="3">
+      <t>ジスイヒ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ガイショクヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キノウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -741,7 +863,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -858,6 +980,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,8 +1273,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4824271" y="1819836"/>
-          <a:ext cx="1555227" cy="4010460"/>
+          <a:off x="4824271" y="1863798"/>
+          <a:ext cx="1555227" cy="4113036"/>
           <a:chOff x="4845425" y="1819836"/>
           <a:chExt cx="1555227" cy="4010460"/>
         </a:xfrm>
@@ -1428,6 +1553,147 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>234093</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50552</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD07AA8D-1996-413B-A98D-DE94181482B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11234615" y="2930769"/>
+          <a:ext cx="683478" cy="636706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>７</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>121302</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>52103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>42780</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>102655</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BEAB9B-35B8-4C07-B414-D385EAF34509}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10535302" y="6109026"/>
+          <a:ext cx="683478" cy="636706"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1656,6 +1922,83 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>115795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE5ED0F-BB2F-4F54-977D-36BDE4C85CA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="575236" y="2502648"/>
+          <a:ext cx="388470" cy="332441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1974,6 +2317,160 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57524</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>189994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>191994</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141435</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7EDBB1-E7EA-4825-BD29-FC7C9088C8DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="311524" y="2475994"/>
+          <a:ext cx="388470" cy="332441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>210450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>22179</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>90920</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>164120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FEB129C-D4FC-4D8F-890D-27E8E624C21B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5290450" y="4975179"/>
+          <a:ext cx="388470" cy="332441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2439,8 +2936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED9231-4B4A-43AF-B5A6-87C387D83DCC}">
   <dimension ref="A1:AZ114"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BK32" sqref="BK32"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BH85" sqref="BH85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4761,7 +5258,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -4785,9 +5282,7 @@
       <c r="W46" s="8"/>
       <c r="X46" s="8"/>
       <c r="Y46" s="8"/>
-      <c r="Z46" s="8" t="s">
-        <v>29</v>
-      </c>
+      <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
       <c r="AB46" s="8"/>
       <c r="AC46" s="8"/>
@@ -4844,7 +5339,7 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -4877,7 +5372,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -4933,7 +5428,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -4958,7 +5453,7 @@
       <c r="X49" s="8"/>
       <c r="Y49" s="8"/>
       <c r="Z49" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA49" s="8"/>
       <c r="AB49" s="8"/>
@@ -5014,7 +5509,7 @@
       <c r="X50" s="8"/>
       <c r="Y50" s="8"/>
       <c r="Z50" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AA50" s="8"/>
       <c r="AB50" s="8"/>
@@ -5047,7 +5542,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -5103,7 +5598,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -5128,7 +5623,7 @@
       <c r="X52" s="8"/>
       <c r="Y52" s="8"/>
       <c r="Z52" s="8" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AA52" s="8"/>
       <c r="AB52" s="8"/>
@@ -5182,7 +5677,9 @@
       <c r="X53" s="8"/>
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
+      <c r="AA53" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="AB53" s="8"/>
       <c r="AC53" s="8"/>
       <c r="AD53" s="8"/>
@@ -5213,7 +5710,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
@@ -5268,7 +5765,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -5291,7 +5788,9 @@
       <c r="W55" s="8"/>
       <c r="X55" s="8"/>
       <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
+      <c r="Z55" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="AA55" s="8"/>
       <c r="AB55" s="8"/>
       <c r="AC55" s="8"/>
@@ -5344,7 +5843,9 @@
       <c r="X56" s="8"/>
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
+      <c r="AA56" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="AB56" s="8"/>
       <c r="AC56" s="8"/>
       <c r="AD56" s="8"/>
@@ -5447,7 +5948,9 @@
       <c r="W58" s="8"/>
       <c r="X58" s="8"/>
       <c r="Y58" s="8"/>
-      <c r="Z58" s="8"/>
+      <c r="Z58" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="AA58" s="8"/>
       <c r="AB58" s="8"/>
       <c r="AC58" s="8"/>
@@ -5500,7 +6003,9 @@
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
-      <c r="AA59" s="8"/>
+      <c r="AA59" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8"/>
       <c r="AD59" s="8"/>
@@ -6813,13 +7318,17 @@
     </row>
     <row r="84" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
+      <c r="B84" s="12">
+        <v>1</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
@@ -6867,13 +7376,17 @@
     </row>
     <row r="85" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="12">
+        <v>2</v>
+      </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14"/>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
@@ -6921,13 +7434,17 @@
     </row>
     <row r="86" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
+      <c r="B86" s="12">
+        <v>3</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14"/>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>48</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
@@ -6975,13 +7492,17 @@
     </row>
     <row r="87" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
-      <c r="B87" s="12"/>
+      <c r="B87" s="12">
+        <v>4</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
-      <c r="H87" s="14"/>
+      <c r="H87" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="17"/>
@@ -7029,13 +7550,17 @@
     </row>
     <row r="88" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
-      <c r="B88" s="12"/>
+      <c r="B88" s="12">
+        <v>5</v>
+      </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
-      <c r="H88" s="14"/>
+      <c r="H88" s="14" t="s">
+        <v>50</v>
+      </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="17"/>
@@ -7083,13 +7608,17 @@
     </row>
     <row r="89" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
-      <c r="B89" s="12"/>
+      <c r="B89" s="12">
+        <v>6</v>
+      </c>
       <c r="C89" s="13"/>
       <c r="D89" s="14"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="13"/>
-      <c r="H89" s="14"/>
+      <c r="H89" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="I89" s="16"/>
       <c r="J89" s="15"/>
       <c r="K89" s="17"/>
@@ -7137,13 +7666,17 @@
     </row>
     <row r="90" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
-      <c r="B90" s="12"/>
+      <c r="B90" s="12">
+        <v>7</v>
+      </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="13"/>
-      <c r="H90" s="14"/>
+      <c r="H90" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="I90" s="16"/>
       <c r="J90" s="15"/>
       <c r="K90" s="17"/>
@@ -7191,13 +7724,17 @@
     </row>
     <row r="91" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
-      <c r="B91" s="12"/>
+      <c r="B91" s="12">
+        <v>8</v>
+      </c>
       <c r="C91" s="13"/>
       <c r="D91" s="14"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="13"/>
-      <c r="H91" s="14"/>
+      <c r="H91" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="I91" s="16"/>
       <c r="J91" s="15"/>
       <c r="K91" s="17"/>
@@ -14459,8 +14996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU3" sqref="AU3"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14486,7 +15023,9 @@
       </c>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="O1" s="28" t="s">
+        <v>31</v>
+      </c>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
@@ -14499,7 +15038,9 @@
         <v>7</v>
       </c>
       <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Z1" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="AA1" s="28"/>
       <c r="AB1" s="28"/>
       <c r="AC1" s="28"/>
@@ -14547,7 +15088,9 @@
         <v>1</v>
       </c>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
+      <c r="Z2" s="42">
+        <v>45085</v>
+      </c>
       <c r="AA2" s="37"/>
       <c r="AB2" s="37"/>
       <c r="AC2" s="37"/>
@@ -16780,7 +17323,9 @@
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -20401,7 +20946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E575B-4864-4A82-98AD-3944260D5A18}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BQ19" sqref="BQ19"/>
     </sheetView>
   </sheetViews>
@@ -26313,6 +26858,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:AO3"/>
     <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:W2"/>
@@ -26320,14 +26872,7 @@
     <mergeCell ref="Z2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -26343,8 +26888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F3EE-E870-41C2-8461-272184CBC40B}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AL42" sqref="AL42"/>
+    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26370,7 +26915,9 @@
       </c>
       <c r="M1" s="28"/>
       <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="O1" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="P1" s="28"/>
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
@@ -26383,7 +26930,9 @@
         <v>7</v>
       </c>
       <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="Z1" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="AA1" s="28"/>
       <c r="AB1" s="28"/>
       <c r="AC1" s="28"/>
@@ -26431,7 +26980,9 @@
         <v>1</v>
       </c>
       <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
+      <c r="Z2" s="42">
+        <v>45085</v>
+      </c>
       <c r="AA2" s="37"/>
       <c r="AB2" s="37"/>
       <c r="AC2" s="37"/>
@@ -28610,7 +29161,9 @@
     <row r="45" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -28664,7 +29217,9 @@
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -28772,7 +29327,9 @@
     <row r="48" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="8"/>
+      <c r="C48" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -32255,6 +32812,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:AO3"/>
     <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:W2"/>
@@ -32262,14 +32826,7 @@
     <mergeCell ref="Z2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -38197,6 +38754,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AF1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:AO3"/>
     <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:W2"/>
@@ -38204,14 +38768,7 @@
     <mergeCell ref="Z2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="O1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AF1"/>
     <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:AO3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_チーム天然水.xlsx
+++ b/doc/04_外部設計書_チーム天然水.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7DDA86-5416-4B7C-9518-74EC2A353D60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B16D53-3934-400D-AE40-CFF443AAE03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,6 +1359,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,12 +1437,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1457,6 +1457,50 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>102798</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>81350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D444FC-6E38-4362-8A52-6BFF3ED2A7D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5817798" y="1206498"/>
+          <a:ext cx="4360052" cy="6454322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1484,7 +1528,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1655,60 +1699,16 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>21155</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>63499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>233268</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1024DBB6-AD0B-4896-BF0A-A5810744227A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4593155" y="1206499"/>
-          <a:ext cx="4264907" cy="6424083"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>252271</xdr:colOff>
+      <xdr:colOff>252272</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>105336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>29498</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>249527</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>115296</xdr:rowOff>
     </xdr:to>
@@ -1725,10 +1725,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6135359" y="1819836"/>
-          <a:ext cx="2287345" cy="4010460"/>
+          <a:off x="6071181" y="1819836"/>
+          <a:ext cx="1659801" cy="4010460"/>
           <a:chOff x="4845425" y="1819836"/>
-          <a:chExt cx="1555227" cy="4010460"/>
+          <a:chExt cx="1143669" cy="4010460"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -1861,7 +1861,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5610014" y="2383945"/>
+            <a:off x="5600624" y="2207052"/>
             <a:ext cx="388470" cy="369793"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1916,7 +1916,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6012182" y="4765195"/>
+            <a:off x="5063806" y="4792409"/>
             <a:ext cx="388470" cy="369793"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3691,94 +3691,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>55702</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>155966</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>19864</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>135709</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EC8032-8542-4293-A71D-911AFFA99C77}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6461404" y="1102896"/>
-          <a:ext cx="3038899" cy="4525006"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>189386</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>178246</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>105917</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>81779</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{932302B6-BB7A-4EC8-B849-016F7900AC38}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9669825" y="1125176"/>
-          <a:ext cx="2991267" cy="4448796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -3933,6 +3845,94 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>268432</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>7793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>249349</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB66022D-A9C0-46ED-81C1-7200F9EA52ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7195705" y="1150793"/>
+          <a:ext cx="3028917" cy="4460298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>128814</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CA1AF2-E1E0-4DDB-BE7D-68B5CAF0D083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477501" y="1194955"/>
+          <a:ext cx="3030682" cy="4458359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3984,50 +3984,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>122543</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>111404</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>111403</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25232109-7427-44FB-B4D7-05FBE6855C12}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4478420" y="1247720"/>
-          <a:ext cx="3938592" cy="5870964"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>111404</xdr:colOff>
       <xdr:row>6</xdr:row>
@@ -4053,7 +4009,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4062,6 +4018,50 @@
         <a:xfrm>
           <a:off x="8566930" y="1292280"/>
           <a:ext cx="3887982" cy="5831974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133684</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>150395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>16711</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>134857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9074831D-7081-4AC6-8AFA-E165D5475450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5247105" y="1253290"/>
+          <a:ext cx="3860132" cy="5682751"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4396,8 +4396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED9231-4B4A-43AF-B5A6-87C387D83DCC}">
   <dimension ref="A1:BC114"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:C48"/>
+    <sheetView topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4410,155 +4410,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="41" t="s">
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="30"/>
+      <c r="AI1" s="30"/>
+      <c r="AJ1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="36"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="38"/>
     </row>
     <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37" t="s">
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="38" t="s">
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="38"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="41"/>
+      <c r="AQ2" s="41"/>
+      <c r="AR2" s="42"/>
     </row>
     <row r="3" spans="1:55" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="33"/>
-      <c r="AQ3" s="33"/>
-      <c r="AR3" s="34"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="36"/>
     </row>
     <row r="4" spans="1:55" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -10884,7 +10884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC84ACC-38F7-461A-8C75-5B48A77EF9AF}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L83" sqref="L83:L86"/>
     </sheetView>
   </sheetViews>
@@ -10894,146 +10894,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38" t="s">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="42"/>
     </row>
     <row r="3" spans="1:54" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="34"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="36"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -15522,7 +15522,7 @@
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
-      <c r="AA85" s="43" t="s">
+      <c r="AA85" s="19" t="s">
         <v>83</v>
       </c>
       <c r="AB85" s="15"/>
@@ -15590,7 +15590,7 @@
       <c r="X86" s="15"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
-      <c r="AA86" s="43" t="s">
+      <c r="AA86" s="19" t="s">
         <v>83</v>
       </c>
       <c r="AB86" s="15"/>
@@ -17165,7 +17165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
@@ -17175,152 +17175,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="42">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="44">
         <v>45085</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="34"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="36"/>
     </row>
     <row r="4" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -23129,7 +23129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E575B-4864-4A82-98AD-3944260D5A18}">
   <dimension ref="A1:BA112"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C58" sqref="C58:C59"/>
     </sheetView>
   </sheetViews>
@@ -23139,149 +23139,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="41" t="s">
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="36"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="37"/>
+      <c r="AP1" s="38"/>
     </row>
     <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37" t="s">
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="38" t="s">
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="33"/>
-      <c r="AP3" s="34"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="36"/>
     </row>
     <row r="4" spans="1:53" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -27521,7 +27521,7 @@
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
       <c r="AA82" s="17"/>
-      <c r="AB82" s="44" t="s">
+      <c r="AB82" s="20" t="s">
         <v>120</v>
       </c>
       <c r="AC82" s="15"/>
@@ -27582,7 +27582,7 @@
       <c r="U83" s="17"/>
       <c r="V83" s="14"/>
       <c r="W83" s="17"/>
-      <c r="X83" s="44" t="s">
+      <c r="X83" s="20" t="s">
         <v>119</v>
       </c>
       <c r="Y83" s="15"/>
@@ -29290,8 +29290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F3EE-E870-41C2-8461-272184CBC40B}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO47" sqref="AO47"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AS42" sqref="AS42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29300,152 +29300,152 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="41" t="s">
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="42">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="44">
         <v>45085</v>
       </c>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38" t="s">
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="34"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="36"/>
     </row>
     <row r="4" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -35249,7 +35249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C5061-2583-4F11-B4AD-2328C5481A71}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AE72" sqref="AE72"/>
     </sheetView>
   </sheetViews>
@@ -35259,146 +35259,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="28" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28" t="s">
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="41" t="s">
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
+      <c r="AG1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="36"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="37"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="38"/>
     </row>
     <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="37" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
-      <c r="X2" s="37" t="s">
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="38" t="s">
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="41"/>
+      <c r="AJ2" s="41"/>
+      <c r="AK2" s="41"/>
+      <c r="AL2" s="41"/>
+      <c r="AM2" s="41"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="42"/>
     </row>
     <row r="3" spans="1:52" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="29" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="33"/>
-      <c r="AG3" s="33"/>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="33"/>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="33"/>
-      <c r="AM3" s="33"/>
-      <c r="AN3" s="33"/>
-      <c r="AO3" s="34"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
+      <c r="W3" s="35"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="35"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="35"/>
+      <c r="AF3" s="35"/>
+      <c r="AG3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="35"/>
+      <c r="AL3" s="35"/>
+      <c r="AM3" s="35"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="36"/>
     </row>
     <row r="4" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/doc/04_外部設計書_チーム天然水.xlsx
+++ b/doc/04_外部設計書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B16D53-3934-400D-AE40-CFF443AAE03C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75CF96-0B46-4092-9424-A5EFCCE37C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書1" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="外部設計書3" sheetId="1" r:id="rId3"/>
     <sheet name="外部設計書4" sheetId="6" r:id="rId4"/>
     <sheet name="外部設計書5" sheetId="8" r:id="rId5"/>
-    <sheet name="外部設計書6" sheetId="7" r:id="rId6"/>
+    <sheet name="外部設計書6 " sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">外部設計書1!$1:$4</definedName>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">外部設計書3!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">外部設計書4!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">外部設計書5!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">外部設計書6!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'外部設計書6 '!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="152">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -516,10 +516,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>main_food_buttom</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>refrigerator</t>
   </si>
   <si>
@@ -532,10 +528,6 @@
   </si>
   <si>
     <t>difference</t>
-  </si>
-  <si>
-    <t>Buttom</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>Link</t>
@@ -666,10 +658,6 @@
   </si>
   <si>
     <t>r_search</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>search_buttom</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -877,18 +865,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>save</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>edit</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>delete</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>u_likefood</t>
   </si>
   <si>
@@ -916,10 +892,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>Buttom</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「2  追加ボタン」クリック</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
@@ -933,6 +905,202 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「3 編集ボタン」クリック</t>
+    <rPh sb="3" eb="5">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レシピ詳細情報の編集を行う</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レシピ詳細情報の削除を行う</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「4  削除ボタン」クリック</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「5  保存ボタン」クリック</t>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>レシピ詳細情報の保存を行う</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>追加ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>編集ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>保存ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>insert_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>update_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>delete_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>save_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>main_food_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>search_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要食材情報の編集を行う</t>
+    <rPh sb="0" eb="4">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「1  編集ボタン」クリック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>「2  削除ボタン」クリック</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要食材情報の削除を行う</t>
+    <rPh sb="0" eb="2">
+      <t>シュヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m_update_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m_delete_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m_food_button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m_register</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_edit</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m_save</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>m_delete</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要食材編集ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>主要食材削除ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シュヨウショクザイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1725,8 +1893,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6071181" y="1819836"/>
-          <a:ext cx="1659801" cy="4010460"/>
+          <a:off x="5616927" y="1813267"/>
+          <a:ext cx="1522715" cy="3995132"/>
           <a:chOff x="4845425" y="1819836"/>
           <a:chExt cx="1143669" cy="4010460"/>
         </a:xfrm>
@@ -3605,6 +3773,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>9603</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>91907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>180979</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>24017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB9A250-EEF9-4719-B776-CAF719482766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283945" y="1244933"/>
+          <a:ext cx="2928613" cy="4352045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>66842</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -3630,7 +3842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3674,7 +3886,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3848,59 +4060,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>268432</xdr:colOff>
+      <xdr:colOff>124874</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>7793</xdr:rowOff>
+      <xdr:rowOff>43600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
-      <xdr:colOff>249349</xdr:colOff>
+      <xdr:colOff>107556</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB66022D-A9C0-46ED-81C1-7200F9EA52ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7195705" y="1150793"/>
-          <a:ext cx="3028917" cy="4460298"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>128814</xdr:rowOff>
+      <xdr:rowOff>120459</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3923,8 +4091,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10477501" y="1194955"/>
-          <a:ext cx="3030682" cy="4458359"/>
+          <a:off x="6391321" y="1196626"/>
+          <a:ext cx="2739919" cy="4496794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3933,30 +4101,393 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1568</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>132696</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ACBAB0D-BD8E-45CF-AACF-DD4961B8C35F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8022621" y="5083797"/>
+          <a:ext cx="381786" cy="334112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>28639</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>39223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>159767</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>181164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FD0A83-815E-409F-9D91-CAC370720041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8551007" y="5035670"/>
+          <a:ext cx="381786" cy="334112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>197750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>83005</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>78220</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>32775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B8A149-87D0-4F9D-A0C0-FFFB04153111}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10976039" y="5079452"/>
+          <a:ext cx="381786" cy="334112"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>33681</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71105</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>160504</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>20622</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D131B369-6D37-4A49-95DB-DE98990628EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11563944" y="5067552"/>
+          <a:ext cx="377481" cy="333859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>102276</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>6269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>233404</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>147957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FF1D1F5-CABD-4750-91A6-5D69A5617BEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8123329" y="4426203"/>
+          <a:ext cx="381786" cy="333859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133684</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133685</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>22281</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>124809</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3988246" cy="5862089"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED518060-8278-4D3B-85E1-B3E6ED3E9BD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF528BF-A30D-40AF-BCC5-8134C49F6CDC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3972,7 +4503,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="389912" y="1270001"/>
+          <a:off x="387684" y="1124285"/>
           <a:ext cx="3988246" cy="5862089"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3981,26 +4512,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>111404</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>155964</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>155965</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>116973</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3887982" cy="5831974"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A129C148-4173-40C3-8FD7-08E244667520}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352FE72C-8AC3-48FC-A6C0-7C613EEEBD6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4016,7 +4542,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8566930" y="1292280"/>
+          <a:off x="8493404" y="1146564"/>
           <a:ext cx="3887982" cy="5831974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4025,26 +4551,21 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>133684</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>150395</xdr:rowOff>
     </xdr:from>
-    <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>16711</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>134857</xdr:rowOff>
-    </xdr:to>
+    <xdr:ext cx="3470220" cy="5855427"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9074831D-7081-4AC6-8AFA-E165D5475450}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7465CE48-2B73-4164-BA81-9158370C344F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4060,14 +4581,168 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5247105" y="1253290"/>
-          <a:ext cx="3860132" cy="5682751"/>
+          <a:off x="4705684" y="1140995"/>
+          <a:ext cx="3470220" cy="5855427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>122544</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>254786</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>148626</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A496C008-8EEC-4E30-9C02-26EC8BECD006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6726544" y="5618971"/>
+          <a:ext cx="386242" cy="308155"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>155964</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>94693</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>31978</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>48362</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8B438C-1D0C-4A37-BC38-0E189275D271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7521964" y="5542993"/>
+          <a:ext cx="384014" cy="283869"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4396,20 +5071,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED9231-4B4A-43AF-B5A6-87C387D83DCC}">
   <dimension ref="A1:BC114"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T30" sqref="T30"/>
+    <sheetView topLeftCell="A79" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="21" width="3.625" style="1"/>
-    <col min="22" max="22" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="3.625" style="1"/>
-    <col min="24" max="24" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="3.625" style="1"/>
+    <col min="1" max="21" width="3.6328125" style="1"/>
+    <col min="22" max="22" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.6328125" style="1"/>
+    <col min="24" max="24" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:55" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
@@ -4462,7 +5137,7 @@
       <c r="AQ1" s="37"/>
       <c r="AR1" s="38"/>
     </row>
-    <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:55" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -7700,7 +8375,7 @@
       <c r="AA61" s="8"/>
       <c r="AB61" s="8"/>
       <c r="AC61" s="8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AD61" s="8"/>
       <c r="AE61" s="8"/>
@@ -7757,7 +8432,7 @@
       <c r="AA62" s="8"/>
       <c r="AB62" s="8"/>
       <c r="AC62" s="8" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="AD62" s="8"/>
       <c r="AE62" s="8"/>
@@ -8999,7 +9674,7 @@
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="17"/>
@@ -9064,7 +9739,7 @@
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P85" s="15"/>
       <c r="Q85" s="17"/>
@@ -9129,12 +9804,12 @@
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P86" s="15"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S86" s="15"/>
       <c r="T86" s="15"/>
@@ -9181,7 +9856,7 @@
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
@@ -9196,7 +9871,7 @@
       <c r="M87" s="15"/>
       <c r="N87" s="17"/>
       <c r="O87" s="14" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P87" s="15"/>
       <c r="Q87" s="17"/>
@@ -9209,13 +9884,13 @@
       <c r="X87" s="14"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AA87" s="15"/>
       <c r="AB87" s="15"/>
       <c r="AC87" s="17"/>
       <c r="AD87" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AE87" s="15"/>
       <c r="AF87" s="17"/>
@@ -9250,7 +9925,7 @@
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
@@ -9265,12 +9940,12 @@
       <c r="M88" s="15"/>
       <c r="N88" s="17"/>
       <c r="O88" s="14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P88" s="15"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S88" s="15"/>
       <c r="T88" s="15"/>
@@ -9319,7 +9994,7 @@
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
@@ -9334,12 +10009,12 @@
       <c r="M89" s="15"/>
       <c r="N89" s="17"/>
       <c r="O89" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P89" s="15"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S89" s="15"/>
       <c r="T89" s="15"/>
@@ -9353,13 +10028,13 @@
       </c>
       <c r="Y89" s="17"/>
       <c r="Z89" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AA89" s="15"/>
       <c r="AB89" s="15"/>
       <c r="AC89" s="17"/>
       <c r="AD89" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AE89" s="15"/>
       <c r="AF89" s="17"/>
@@ -9394,7 +10069,7 @@
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
@@ -9409,12 +10084,12 @@
       <c r="M90" s="15"/>
       <c r="N90" s="17"/>
       <c r="O90" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P90" s="15"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="S90" s="15"/>
       <c r="T90" s="15"/>
@@ -9428,13 +10103,13 @@
       </c>
       <c r="Y90" s="17"/>
       <c r="Z90" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AA90" s="15"/>
       <c r="AB90" s="15"/>
       <c r="AC90" s="17"/>
       <c r="AD90" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AE90" s="15"/>
       <c r="AF90" s="17"/>
@@ -9469,7 +10144,7 @@
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
@@ -9484,12 +10159,12 @@
       <c r="M91" s="15"/>
       <c r="N91" s="17"/>
       <c r="O91" s="14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P91" s="15"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="S91" s="15"/>
       <c r="T91" s="15"/>
@@ -9540,13 +10215,13 @@
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I92" s="16"/>
       <c r="J92" s="16"/>
@@ -9555,7 +10230,7 @@
       <c r="M92" s="15"/>
       <c r="N92" s="17"/>
       <c r="O92" s="14" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="P92" s="15"/>
       <c r="Q92" s="17"/>
@@ -10884,16 +11559,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC84ACC-38F7-461A-8C75-5B48A77EF9AF}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L83" sqref="L83:L86"/>
+    <sheetView topLeftCell="A66" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:54" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
@@ -10943,7 +11618,7 @@
       <c r="AN1" s="37"/>
       <c r="AO1" s="38"/>
     </row>
-    <row r="2" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -13232,7 +13907,7 @@
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -13290,7 +13965,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -13404,7 +14079,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -13634,7 +14309,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -13861,7 +14536,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -13918,7 +14593,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
@@ -15364,19 +16039,19 @@
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
       <c r="L83" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
@@ -15428,19 +16103,19 @@
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
       <c r="L84" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
@@ -15492,19 +16167,19 @@
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
       <c r="L85" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
@@ -15517,13 +16192,13 @@
       <c r="U85" s="14"/>
       <c r="V85" s="17"/>
       <c r="W85" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X85" s="15"/>
       <c r="Y85" s="15"/>
       <c r="Z85" s="17"/>
       <c r="AA85" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB85" s="15"/>
       <c r="AC85" s="17"/>
@@ -15560,19 +16235,19 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
       <c r="L86" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
@@ -15585,13 +16260,13 @@
       <c r="U86" s="14"/>
       <c r="V86" s="17"/>
       <c r="W86" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="X86" s="15"/>
       <c r="Y86" s="15"/>
       <c r="Z86" s="17"/>
       <c r="AA86" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AB86" s="15"/>
       <c r="AC86" s="17"/>
@@ -17165,16 +17840,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
@@ -17228,7 +17903,7 @@
       <c r="AN1" s="37"/>
       <c r="AO1" s="38"/>
     </row>
-    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -19493,7 +20168,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -19549,7 +20224,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -21418,19 +22093,19 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
       <c r="L82" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
@@ -21443,13 +22118,13 @@
       <c r="U82" s="14"/>
       <c r="V82" s="17"/>
       <c r="W82" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="X82" s="15"/>
       <c r="Y82" s="15"/>
       <c r="Z82" s="17"/>
       <c r="AA82" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AB82" s="15"/>
       <c r="AC82" s="17"/>
@@ -23129,16 +23804,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E575B-4864-4A82-98AD-3944260D5A18}">
   <dimension ref="A1:BA112"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58:C59"/>
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:53" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
@@ -23189,7 +23864,7 @@
       <c r="AO1" s="37"/>
       <c r="AP1" s="38"/>
     </row>
-    <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -25495,7 +26170,7 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -25552,7 +26227,7 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -25664,7 +26339,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -25721,7 +26396,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -25831,7 +26506,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
@@ -25887,7 +26562,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
@@ -25996,7 +26671,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
@@ -26052,7 +26727,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
@@ -26161,7 +26836,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
@@ -26217,7 +26892,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
@@ -26326,7 +27001,7 @@
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
@@ -26382,7 +27057,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
@@ -26491,7 +27166,7 @@
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
@@ -26547,7 +27222,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
@@ -27490,20 +28165,20 @@
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="15"/>
       <c r="L82" s="17"/>
       <c r="M82" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N82" s="15"/>
       <c r="O82" s="17"/>
@@ -27516,13 +28191,13 @@
       <c r="V82" s="14"/>
       <c r="W82" s="17"/>
       <c r="X82" s="14" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="Y82" s="15"/>
       <c r="Z82" s="15"/>
       <c r="AA82" s="17"/>
       <c r="AB82" s="20" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="AC82" s="15"/>
       <c r="AD82" s="17"/>
@@ -27557,20 +28232,20 @@
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
       <c r="H83" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="15"/>
       <c r="L83" s="17"/>
       <c r="M83" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N83" s="15"/>
       <c r="O83" s="17"/>
@@ -27583,13 +28258,13 @@
       <c r="V83" s="14"/>
       <c r="W83" s="17"/>
       <c r="X83" s="20" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="Y83" s="15"/>
       <c r="Z83" s="15"/>
       <c r="AA83" s="17"/>
       <c r="AB83" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AC83" s="15"/>
       <c r="AD83" s="17"/>
@@ -27624,20 +28299,20 @@
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
       <c r="H84" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="15"/>
       <c r="L84" s="17"/>
       <c r="M84" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N84" s="15"/>
       <c r="O84" s="17"/>
@@ -27687,20 +28362,20 @@
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
       <c r="H85" s="14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="15"/>
       <c r="L85" s="17"/>
       <c r="M85" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N85" s="15"/>
       <c r="O85" s="17"/>
@@ -27750,20 +28425,20 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
       <c r="H86" s="14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="15"/>
       <c r="L86" s="17"/>
       <c r="M86" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N86" s="15"/>
       <c r="O86" s="17"/>
@@ -27776,7 +28451,7 @@
       <c r="V86" s="14"/>
       <c r="W86" s="17"/>
       <c r="X86" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y86" s="15"/>
       <c r="Z86" s="15"/>
@@ -27815,20 +28490,20 @@
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="13"/>
       <c r="H87" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I87" s="16"/>
       <c r="J87" s="15"/>
       <c r="K87" s="15"/>
       <c r="L87" s="17"/>
       <c r="M87" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N87" s="15"/>
       <c r="O87" s="17"/>
@@ -27841,7 +28516,7 @@
       <c r="V87" s="14"/>
       <c r="W87" s="17"/>
       <c r="X87" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y87" s="15"/>
       <c r="Z87" s="15"/>
@@ -27880,20 +28555,20 @@
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="13"/>
       <c r="H88" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I88" s="16"/>
       <c r="J88" s="15"/>
       <c r="K88" s="15"/>
       <c r="L88" s="17"/>
       <c r="M88" s="14" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="N88" s="15"/>
       <c r="O88" s="17"/>
@@ -27906,7 +28581,7 @@
       <c r="V88" s="14"/>
       <c r="W88" s="17"/>
       <c r="X88" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Y88" s="15"/>
       <c r="Z88" s="15"/>
@@ -29290,16 +29965,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F3EE-E870-41C2-8461-272184CBC40B}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AS42" sqref="AS42"/>
+    <sheetView topLeftCell="A67" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
@@ -29353,7 +30028,7 @@
       <c r="AN1" s="37"/>
       <c r="AO1" s="38"/>
     </row>
-    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -31840,7 +32515,7 @@
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -31896,7 +32571,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
@@ -32002,6 +32677,9 @@
     <row r="53" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -32054,6 +32732,9 @@
     <row r="54" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
+      <c r="C54" s="1" t="s">
+        <v>122</v>
+      </c>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -32158,6 +32839,9 @@
     <row r="56" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
+      <c r="C56" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -32210,6 +32894,9 @@
     <row r="57" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
+      <c r="C57" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -32314,6 +33001,9 @@
     <row r="59" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
+      <c r="C59" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -32366,6 +33056,9 @@
     <row r="60" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -33545,17 +34238,25 @@
     </row>
     <row r="82" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
+      <c r="B82" s="12">
+        <v>1</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="D82" s="14" t="s">
+        <v>127</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14"/>
@@ -33599,17 +34300,25 @@
     </row>
     <row r="83" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
+      <c r="B83" s="12">
+        <v>2</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14"/>
@@ -33653,17 +34362,25 @@
     </row>
     <row r="84" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
+      <c r="B84" s="12">
+        <v>3</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
+      <c r="D84" s="14" t="s">
+        <v>133</v>
+      </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
       <c r="O84" s="14"/>
@@ -33707,17 +34424,25 @@
     </row>
     <row r="85" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
-      <c r="B85" s="12"/>
+      <c r="B85" s="12">
+        <v>4</v>
+      </c>
       <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
+      <c r="D85" s="14" t="s">
+        <v>134</v>
+      </c>
       <c r="E85" s="15"/>
       <c r="F85" s="15"/>
       <c r="G85" s="13"/>
-      <c r="H85" s="14"/>
+      <c r="H85" s="14" t="s">
+        <v>130</v>
+      </c>
       <c r="I85" s="16"/>
       <c r="J85" s="15"/>
       <c r="K85" s="17"/>
-      <c r="L85" s="14"/>
+      <c r="L85" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M85" s="15"/>
       <c r="N85" s="17"/>
       <c r="O85" s="14"/>
@@ -33761,17 +34486,25 @@
     </row>
     <row r="86" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
-      <c r="B86" s="12"/>
+      <c r="B86" s="12">
+        <v>5</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
+      <c r="D86" s="14" t="s">
+        <v>135</v>
+      </c>
       <c r="E86" s="15"/>
       <c r="F86" s="15"/>
       <c r="G86" s="13"/>
-      <c r="H86" s="14"/>
+      <c r="H86" s="14" t="s">
+        <v>131</v>
+      </c>
       <c r="I86" s="16"/>
       <c r="J86" s="15"/>
       <c r="K86" s="17"/>
-      <c r="L86" s="14"/>
+      <c r="L86" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M86" s="15"/>
       <c r="N86" s="17"/>
       <c r="O86" s="14"/>
@@ -35246,19 +35979,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{316C5061-2583-4F11-B4AD-2328C5481A71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E51D8-BFE7-4046-9AC6-50111E3D77A0}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="57" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE72" sqref="AE72"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:52" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B1" s="21" t="s">
         <v>6</v>
       </c>
@@ -35308,7 +36041,7 @@
       <c r="AN1" s="37"/>
       <c r="AO1" s="38"/>
     </row>
-    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="24"/>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
@@ -37570,7 +38303,9 @@
     <row r="46" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -37624,7 +38359,9 @@
     <row r="47" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -37732,7 +38469,9 @@
     <row r="49" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="8"/>
+      <c r="C49" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
@@ -37786,7 +38525,9 @@
     <row r="50" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="8"/>
+      <c r="C50" s="8" t="s">
+        <v>142</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
@@ -39487,17 +40228,25 @@
     </row>
     <row r="82" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
+      <c r="B82" s="12">
+        <v>1</v>
+      </c>
       <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
+      <c r="D82" s="14" t="s">
+        <v>143</v>
+      </c>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
+      <c r="H82" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="I82" s="16"/>
       <c r="J82" s="15"/>
       <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
+      <c r="L82" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M82" s="15"/>
       <c r="N82" s="17"/>
       <c r="O82" s="14"/>
@@ -39541,17 +40290,25 @@
     </row>
     <row r="83" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
+      <c r="B83" s="12">
+        <v>2</v>
+      </c>
       <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
+      <c r="D83" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="E83" s="15"/>
       <c r="F83" s="15"/>
       <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
+      <c r="H83" s="14" t="s">
+        <v>151</v>
+      </c>
       <c r="I83" s="16"/>
       <c r="J83" s="15"/>
       <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
+      <c r="L83" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="M83" s="15"/>
       <c r="N83" s="17"/>
       <c r="O83" s="14"/>
@@ -41161,6 +41918,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="B1:K3"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:W1"/>
@@ -41171,11 +41933,6 @@
     <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/doc/04_外部設計書_チーム天然水.xlsx
+++ b/doc/04_外部設計書_チーム天然水.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC75CF96-0B46-4092-9424-A5EFCCE37C19}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0B3810-C06E-4EEF-824E-8DBBF6A3B835}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書1" sheetId="4" r:id="rId1"/>
@@ -1893,8 +1893,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5616927" y="1813267"/>
-          <a:ext cx="1522715" cy="3995132"/>
+          <a:off x="5618796" y="1847714"/>
+          <a:ext cx="1522804" cy="4075509"/>
           <a:chOff x="4845425" y="1819836"/>
           <a:chExt cx="1143669" cy="4010460"/>
         </a:xfrm>
@@ -5071,7 +5071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ED9231-4B4A-43AF-B5A6-87C387D83DCC}">
   <dimension ref="A1:BC114"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
       <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
@@ -11559,7 +11559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC84ACC-38F7-461A-8C75-5B48A77EF9AF}">
   <dimension ref="A1:BB113"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -17840,7 +17840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -23804,7 +23804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988E575B-4864-4A82-98AD-3944260D5A18}">
   <dimension ref="A1:BA112"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
       <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
@@ -29965,7 +29965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6650F3EE-E870-41C2-8461-272184CBC40B}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
@@ -35982,7 +35982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56E51D8-BFE7-4046-9AC6-50111E3D77A0}">
   <dimension ref="A1:AZ112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
       <selection activeCell="AA48" sqref="AA48"/>
     </sheetView>
   </sheetViews>
@@ -41918,11 +41918,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="AG1:AH1"/>
     <mergeCell ref="B1:K3"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:W1"/>
@@ -41933,6 +41928,11 @@
     <mergeCell ref="AI1:AO1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="AG1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
